--- a/results/template.xlsx
+++ b/results/template.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t xml:space="preserve">BUYER NAME</t>
   </si>
@@ -47,6 +47,9 @@
   </si>
   <si>
     <t xml:space="preserve">TOTAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24K Payment</t>
   </si>
 </sst>
 </file>
@@ -130,12 +133,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -159,34 +166,34 @@
         <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="ffffff"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1f497d"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="eeece1"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4f81bd"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="c0504d"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9bbb59"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064a2"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4bacc6"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="f79646"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000ff"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
         <a:srgbClr val="800080"/>
@@ -331,44 +338,48 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:J1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J3" activeCellId="0" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="1" style="0" width="17.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="1" style="1" width="17.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="16.27"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
